--- a/data/trans_bre/P19C08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Clase-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,76</t>
+          <t>-1,41; 0,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,15</t>
+          <t>-3,07; 0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,63</t>
+          <t>-0,83; 0,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,44</t>
+          <t>-0,61; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,34</t>
+          <t>-0,86; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,12</t>
+          <t>-0,44; 1,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,39</t>
+          <t>-0,75; 1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,51</t>
+          <t>-0,56; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,26</t>
+          <t>-1,06; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,73</t>
+          <t>-0,48; 0,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,21</t>
+          <t>-0,21; 1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,56</t>
+          <t>-0,23; 0,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>-0,0; 1,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,03; —</t>
+          <t>-74,48; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,46</t>
+          <t>0,21; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,43</t>
+          <t>-1,92; 0,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,99</t>
+          <t>-0,43; 0,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,07</t>
+          <t>-3,74; 0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 202,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,5</t>
+          <t>-2,11; 0,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,9</t>
+          <t>-1,17; 0,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,12</t>
+          <t>0,19; 1,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,55</t>
+          <t>-0,15; 0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,39</t>
+          <t>-0,48; 0,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,33</t>
+          <t>-0,17; 0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,27</t>
+          <t>-0,41; 0,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 299,85</t>
+          <t>-32,24; 302,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-55,1; 92,71</t>
+          <t>-54,18; 112,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,08; 573,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 118,23</t>
+          <t>-61,18; 120,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
